--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AX$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$AZ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AY$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$BA$9</definedName>
     <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
     <definedName name="date_choices">choices!$C$1:$C$3</definedName>
     <definedName name="validation_choices">choices!$B$1:$B$3</definedName>
@@ -40,73 +40,6 @@
   </authors>
   <commentList>
     <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
-Par exemple : 
-jpg, jpeg, png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
-Cette option doit être utilisée si de nombreuses options sont proposées</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SMILE</author>
-  </authors>
-  <commentList>
-    <comment ref="AD4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,6 +70,73 @@
       </text>
     </comment>
     <comment ref="AC5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
+Cette option doit être utilisée si de nombreuses options sont proposées</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SMILE</author>
+  </authors>
+  <commentList>
+    <comment ref="AE4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
+Par exemple : "en_US, fr_FR"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Inscrire les extensions permises, séparées par une ","
+Par exemple : 
+jpg, jpeg, png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="275">
   <si>
     <t>en_US</t>
   </si>
@@ -1137,6 +1137,15 @@
       </rPr>
       <t>Le titre de l'onglet devra commencer par "attributes"</t>
     </r>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
+    <t>Valeur par défaut</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1341,6 +1350,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1985,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3199,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3218,48 +3228,48 @@
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.5703125" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="2"/>
-    <col min="49" max="49" width="9.140625" style="3"/>
-    <col min="50" max="51" width="9.140625" style="2"/>
+    <col min="12" max="13" width="29.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="26.42578125" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.5703125" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="2"/>
+    <col min="50" max="50" width="9.140625" style="3"/>
+    <col min="51" max="52" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>267</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="AV1"/>
       <c r="AW1"/>
       <c r="AX1"/>
       <c r="AY1"/>
-    </row>
-    <row r="2" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AZ1"/>
+    </row>
+    <row r="2" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="AV2"/>
       <c r="AW2"/>
       <c r="AX2"/>
       <c r="AY2"/>
-    </row>
-    <row r="4" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ2"/>
+    </row>
+    <row r="4" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -3292,8 +3302,9 @@
       <c r="Z4" s="30"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
-    </row>
-    <row r="5" spans="1:51" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="30"/>
+    </row>
+    <row r="5" spans="1:52" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>205</v>
       </c>
@@ -3331,55 +3342,58 @@
         <v>218</v>
       </c>
       <c r="M5" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3416,60 +3430,63 @@
       <c r="L6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AV6"/>
       <c r="AW6"/>
       <c r="AX6"/>
       <c r="AY6"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ6"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3504,8 +3521,8 @@
       <c r="L7" s="18">
         <v>1</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3538,14 +3555,15 @@
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AY7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3579,36 +3597,42 @@
       <c r="L8" s="16">
         <v>1</v>
       </c>
+      <c r="W8" s="33"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="16" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="C4:AC4"/>
   </mergeCells>
-  <dataValidations count="17">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="Q7:R1048576">
+  <dataValidations disablePrompts="1" count="17">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="Z7:Z1048576 AB7:AB1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AA7:AA1048576 AC7:AC1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V1048576">
       <formula1>date_choices</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="N7:N1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O7:O1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:L1048576 P7:P1048576 S7:T1048576 F7:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:H1048576 Q7:Q1048576 T7:U1048576 J7:L1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3616,31 +3640,31 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7 AP7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7 AQ7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7">
-      <formula1>$Q$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
+      <formula1>$R$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7:AM7 AR7:AT7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AN7 AS7:AU7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3650,7 +3674,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>attribute_types!$B$3:$B$14</xm:f>
@@ -3661,13 +3685,13 @@
           <x14:formula1>
             <xm:f>metric_units!$B$3:$B$89</xm:f>
           </x14:formula1>
-          <xm:sqref>Y7:Y1048576</xm:sqref>
+          <xm:sqref>Z7:Z1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>metric_types!$B$3:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>X7:X1048576</xm:sqref>
+          <xm:sqref>Y7:Y1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -3683,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA8"/>
+  <dimension ref="A1:BB8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3702,48 +3726,48 @@
     <col min="10" max="10" width="25.140625" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" style="16"/>
     <col min="12" max="12" width="34.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125"/>
-    <col min="15" max="15" width="19.28515625"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625"/>
-    <col min="18" max="18" width="16.5703125"/>
-    <col min="19" max="19" width="19"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375"/>
-    <col min="22" max="23" width="13.42578125"/>
-    <col min="24" max="24" width="19.85546875"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="27" max="27" width="21"/>
-    <col min="28" max="28" width="22"/>
-    <col min="29" max="29" width="34.5703125" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="16"/>
-    <col min="31" max="39" width="13.42578125"/>
-    <col min="40" max="40" width="16.85546875"/>
-    <col min="41" max="41" width="19.140625"/>
-    <col min="42" max="42" width="16.28515625"/>
-    <col min="43" max="45" width="13.42578125"/>
-    <col min="46" max="46" width="19.140625"/>
-    <col min="47" max="49" width="18.140625"/>
-    <col min="50" max="50" width="0" style="2" hidden="1"/>
-    <col min="51" max="51" width="0" style="3" hidden="1"/>
-    <col min="52" max="52" width="0" style="2" hidden="1"/>
-    <col min="53" max="53" width="17.140625" style="2"/>
-    <col min="54" max="1024" width="17.140625"/>
+    <col min="13" max="14" width="29.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125"/>
+    <col min="16" max="16" width="19.28515625"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625"/>
+    <col min="19" max="19" width="16.5703125"/>
+    <col min="20" max="20" width="19"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375"/>
+    <col min="23" max="24" width="13.42578125"/>
+    <col min="25" max="25" width="19.85546875"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="21"/>
+    <col min="29" max="29" width="22"/>
+    <col min="30" max="30" width="34.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="16"/>
+    <col min="32" max="40" width="13.42578125"/>
+    <col min="41" max="41" width="16.85546875"/>
+    <col min="42" max="42" width="19.140625"/>
+    <col min="43" max="43" width="16.28515625"/>
+    <col min="44" max="46" width="13.42578125"/>
+    <col min="47" max="47" width="19.140625"/>
+    <col min="48" max="50" width="18.140625"/>
+    <col min="51" max="51" width="0" style="2" hidden="1"/>
+    <col min="52" max="52" width="0" style="3" hidden="1"/>
+    <col min="53" max="53" width="0" style="2" hidden="1"/>
+    <col min="54" max="54" width="17.140625" style="2"/>
+    <col min="55" max="1025" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AX1"/>
       <c r="AY1"/>
       <c r="AZ1"/>
       <c r="BA1"/>
-    </row>
-    <row r="2" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB1"/>
+    </row>
+    <row r="2" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3756,12 +3780,12 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
       <c r="BA2"/>
-    </row>
-    <row r="4" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BB2"/>
+    </row>
+    <row r="4" spans="1:54" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
@@ -3795,11 +3819,12 @@
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30"/>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>205</v>
       </c>
@@ -3840,58 +3865,61 @@
         <v>218</v>
       </c>
       <c r="N5" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AD5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AE5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3931,61 +3959,64 @@
       <c r="M6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AX6"/>
+      <c r="AE6" s="20"/>
       <c r="AY6"/>
       <c r="AZ6"/>
       <c r="BA6"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB6"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3998,8 +4029,8 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -4013,10 +4044,10 @@
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="18">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="18">
         <v>1</v>
       </c>
-      <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
@@ -4035,14 +4066,15 @@
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
       <c r="AW7" s="11"/>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4051,40 +4083,40 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="AD8" s="16">
+      <c r="AE8" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:AC4"/>
+    <mergeCell ref="D4:AD4"/>
   </mergeCells>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7:AO7 AT7:AV7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7:AP7 AU7:AW7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
-      <formula1>$R$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
+      <formula1>$S$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP7 AR7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ7 AS7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4092,36 +4124,36 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:M1048576 Q7:Q1048576 B7:B1048576 T7:U1048576 G7:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:I1048576 R7:R1048576 B7:B1048576 U7:V1048576 K7:M1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O7:O1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="P7:P1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
       <formula1>date_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AA7:AA1048576 AC7:AC1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AB7:AB1048576 AD7:AD1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AD7:AD1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AE7:AE1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="S7:T1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4139,13 +4171,13 @@
           <x14:formula1>
             <xm:f>metric_types!$B$3:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>Y7:Y1048576</xm:sqref>
+          <xm:sqref>Z7:Z1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>metric_units!$B$3:$B$89</xm:f>
           </x14:formula1>
-          <xm:sqref>Z7:Z1048576</xm:sqref>
+          <xm:sqref>AA7:AA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -25,8 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AY$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$BA$9</definedName>
+    <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
+    <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
     <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
     <definedName name="date_choices">choices!$C$1:$C$3</definedName>
+    <definedName name="metric_types">metric_types!$B$3:$B$11</definedName>
+    <definedName name="metric_units">metric_units!$B$3:$B$89</definedName>
     <definedName name="validation_choices">choices!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -1343,14 +1347,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,12 +2050,12 @@
       <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2225,7 +2229,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2362,7 +2366,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2479,7 @@
   <dimension ref="A1:AMJ89"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3211,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3274,35 +3278,35 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="1:52" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
@@ -3597,7 +3601,7 @@
       <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="W8" s="33"/>
+      <c r="W8" s="31"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="16" t="s">
@@ -3608,7 +3612,7 @@
   <mergeCells count="1">
     <mergeCell ref="C4:AC4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="17">
+  <dataValidations count="21">
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
       <formula1>0</formula1>
@@ -3668,40 +3672,22 @@
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
+      <formula1>attribute_groups</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C1048576">
+      <formula1>attribute_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y1048576">
+      <formula1>metric_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
+      <formula1>metric_units</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>attribute_types!$B$3:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>metric_units!$B$3:$B$89</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z7:Z1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>metric_types!$B$3:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y7:Y1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>attribute_groups!$A$4:$A$257</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3709,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16:AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3791,40 +3777,40 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
       <c r="AE4" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>205</v>
       </c>
@@ -3919,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -4016,7 +4002,7 @@
       <c r="BA6"/>
       <c r="BB6"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -4091,7 +4077,7 @@
   <mergeCells count="1">
     <mergeCell ref="D4:AD4"/>
   </mergeCells>
-  <dataValidations count="18">
+  <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7:AP7 AU7:AW7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
@@ -4154,40 +4140,22 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576"/>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
+      <formula1>attribute_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E7:E1048576">
+      <formula1>attribute_groups</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
+      <formula1>metric_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
+      <formula1>metric_units</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>attribute_groups!$A$4:$A$257</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>metric_types!$B$3:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z7:Z1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>metric_units!$B$3:$B$89</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA7:AA1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>attribute_types!$B$3:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4195,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4208,10 +4176,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
@@ -4275,11 +4243,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
@@ -4347,13 +4315,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4439,10 +4407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
@@ -4508,10 +4476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4564,7 +4532,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AY$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$BA$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AZ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$BB$9</definedName>
     <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
     <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
     <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
@@ -43,7 +43,7 @@
     <author>SMILE</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,61 +52,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
-Par exemple : 
-jpg, jpeg, png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
-Cette option doit être utilisée si de nombreuses options sont proposées</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SMILE</author>
-  </authors>
-  <commentList>
-    <comment ref="AE4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+          <t>La valeur doit être à 1 pour l'identifiant, et à 0 pour les autres attributs.</t>
         </r>
       </text>
     </comment>
@@ -141,6 +87,86 @@
       </text>
     </comment>
     <comment ref="AD5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
+Cette option doit être utilisée si de nombreuses options sont proposées</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SMILE</author>
+  </authors>
+  <commentList>
+    <comment ref="AF4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>La valeur doit être à 1 pour l'identifiant, et à 0 pour les autres attributs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
+Par exemple : "en_US, fr_FR"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Inscrire les extensions permises, séparées par une ","
+Par exemple : 
+jpg, jpeg, png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
   <si>
     <t>en_US</t>
   </si>
@@ -1150,6 +1176,12 @@
   </si>
   <si>
     <t>Valeur par défaut</t>
+  </si>
+  <si>
+    <t>Requis*</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
 </sst>
 </file>
@@ -3213,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3226,54 +3258,54 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" style="16" customWidth="1"/>
-    <col min="12" max="13" width="29.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.5703125" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="2"/>
-    <col min="50" max="50" width="9.140625" style="3"/>
-    <col min="51" max="52" width="9.140625" style="2"/>
+    <col min="6" max="7" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.5703125" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="2"/>
+    <col min="51" max="51" width="9.140625" style="3"/>
+    <col min="52" max="53" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>267</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="AW1"/>
       <c r="AX1"/>
       <c r="AY1"/>
       <c r="AZ1"/>
-    </row>
-    <row r="2" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="AW2"/>
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
-    </row>
-    <row r="4" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BA2"/>
+    </row>
+    <row r="4" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -3307,8 +3339,9 @@
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
       <c r="AC4" s="32"/>
-    </row>
-    <row r="5" spans="1:52" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="32"/>
+    </row>
+    <row r="5" spans="1:53" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>205</v>
       </c>
@@ -3325,79 +3358,82 @@
         <v>211</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AD5" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3414,83 +3450,86 @@
         <v>10</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AW6"/>
       <c r="AX6"/>
       <c r="AY6"/>
       <c r="AZ6"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA6"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3513,21 +3552,23 @@
         <v>1</v>
       </c>
       <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="18">
+      <c r="J7" s="11"/>
+      <c r="K7" s="18">
         <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
       </c>
       <c r="L7" s="18">
         <v>1</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="M7" s="18">
+        <v>1</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -3560,14 +3601,15 @@
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3587,21 +3629,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="H8" s="16">
+      <c r="I8" s="16">
         <v>0</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="16">
         <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
       </c>
       <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="W8" s="31"/>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
+      <c r="X8" s="31"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="16" t="s">
@@ -3610,33 +3655,33 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:AC4"/>
+    <mergeCell ref="C4:AD4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="S7:T1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AA7:AA1048576 AC7:AC1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AB7:AB1048576 AD7:AD1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
       <formula1>date_choices</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O7:O1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="P7:P1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:H1048576 Q7:Q1048576 T7:U1048576 J7:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I1048576 R7:R1048576 U7:V1048576 K7:M1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3644,31 +3689,31 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7 AQ7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP7 AR7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
-      <formula1>$R$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
+      <formula1>$S$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AN7 AS7:AU7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7:AO7 AT7:AV7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3678,10 +3723,10 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>
@@ -3693,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB8"/>
+  <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16:AB17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3706,54 +3751,55 @@
     <col min="4" max="4" width="23.7109375"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="16"/>
-    <col min="7" max="7" width="13" style="16"/>
-    <col min="8" max="8" width="25.85546875" style="16"/>
-    <col min="9" max="9" width="25.140625" style="16"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="16"/>
-    <col min="12" max="12" width="34.5703125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="29.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125"/>
-    <col min="16" max="16" width="19.28515625"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625"/>
-    <col min="19" max="19" width="16.5703125"/>
-    <col min="20" max="20" width="19"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375"/>
-    <col min="23" max="24" width="13.42578125"/>
-    <col min="25" max="25" width="19.85546875"/>
-    <col min="26" max="26" width="20.42578125" customWidth="1"/>
-    <col min="27" max="27" width="26.42578125" customWidth="1"/>
-    <col min="28" max="28" width="21"/>
-    <col min="29" max="29" width="22"/>
-    <col min="30" max="30" width="34.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="16"/>
-    <col min="32" max="40" width="13.42578125"/>
-    <col min="41" max="41" width="16.85546875"/>
-    <col min="42" max="42" width="19.140625"/>
-    <col min="43" max="43" width="16.28515625"/>
-    <col min="44" max="46" width="13.42578125"/>
-    <col min="47" max="47" width="19.140625"/>
-    <col min="48" max="50" width="18.140625"/>
-    <col min="51" max="51" width="0" style="2" hidden="1"/>
-    <col min="52" max="52" width="0" style="3" hidden="1"/>
-    <col min="53" max="53" width="0" style="2" hidden="1"/>
-    <col min="54" max="54" width="17.140625" style="2"/>
-    <col min="55" max="1025" width="17.140625"/>
+    <col min="7" max="7" width="9.140625" style="16"/>
+    <col min="8" max="8" width="13" style="16"/>
+    <col min="9" max="9" width="25.85546875" style="16"/>
+    <col min="10" max="10" width="25.140625" style="16"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="16"/>
+    <col min="13" max="13" width="34.5703125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="29.7109375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125"/>
+    <col min="17" max="17" width="19.28515625"/>
+    <col min="18" max="18" width="25.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625"/>
+    <col min="20" max="20" width="16.5703125"/>
+    <col min="21" max="21" width="19"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375"/>
+    <col min="24" max="25" width="13.42578125"/>
+    <col min="26" max="26" width="19.85546875"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21"/>
+    <col min="30" max="30" width="22"/>
+    <col min="31" max="31" width="34.5703125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="16"/>
+    <col min="33" max="41" width="13.42578125"/>
+    <col min="42" max="42" width="16.85546875"/>
+    <col min="43" max="43" width="19.140625"/>
+    <col min="44" max="44" width="16.28515625"/>
+    <col min="45" max="47" width="13.42578125"/>
+    <col min="48" max="48" width="19.140625"/>
+    <col min="49" max="51" width="18.140625"/>
+    <col min="52" max="52" width="0" style="2" hidden="1"/>
+    <col min="53" max="53" width="0" style="3" hidden="1"/>
+    <col min="54" max="54" width="0" style="2" hidden="1"/>
+    <col min="55" max="55" width="17.140625" style="2"/>
+    <col min="56" max="1026" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AY1"/>
       <c r="AZ1"/>
       <c r="BA1"/>
       <c r="BB1"/>
-    </row>
-    <row r="2" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC1"/>
+    </row>
+    <row r="2" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3766,12 +3812,12 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AY2"/>
       <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-    </row>
-    <row r="4" spans="1:54" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC2"/>
+    </row>
+    <row r="4" spans="1:55" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
@@ -3806,11 +3852,12 @@
       <c r="AB4" s="32"/>
       <c r="AC4" s="32"/>
       <c r="AD4" s="32"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>205</v>
       </c>
@@ -3830,82 +3877,85 @@
         <v>211</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AD5" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AE5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AF5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3925,84 +3975,87 @@
         <v>10</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="20"/>
-      <c r="AY6"/>
+      <c r="AF6" s="20"/>
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-    </row>
-    <row r="7" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC6"/>
+    </row>
+    <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -4011,13 +4064,13 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -4031,10 +4084,10 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="18">
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="18">
         <v>1</v>
       </c>
-      <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
@@ -4053,14 +4106,15 @@
       <c r="AV7" s="11"/>
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
-      <c r="AY7" s="2" t="s">
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4069,40 +4123,40 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="AE8" s="16">
+      <c r="AF8" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:AD4"/>
+    <mergeCell ref="D4:AE4"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7:AP7 AU7:AW7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP7:AQ7 AV7:AX7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
-      <formula1>$S$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
+      <formula1>$T$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ7 AS7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR7 AT7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4110,46 +4164,46 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:I1048576 R7:R1048576 B7:B1048576 U7:V1048576 K7:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:J1048576 S7:S1048576 B7:B1048576 V7:W1048576 L7:N1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="P7:P1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="Q7:Q1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
       <formula1>date_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AB7:AB1048576 AD7:AD1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AC7:AC1048576 AE7:AE1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AE7:AE1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF7:AF1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="S7:T1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="T7:U1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7:AD1048576"/>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E7:E1048576">
       <formula1>attribute_groups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AZ$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$BB$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AW$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$AY$9</definedName>
     <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
     <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
     <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
@@ -43,20 +43,7 @@
     <author>SMILE</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>La valeur doit être à 1 pour l'identifiant, et à 0 pour les autres attributs.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0">
+    <comment ref="Z5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0">
+    <comment ref="AA5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +97,7 @@
     <author>SMILE</author>
   </authors>
   <commentList>
-    <comment ref="AF4" authorId="0">
+    <comment ref="AC4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,20 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>La valeur doit être à 1 pour l'identifiant, et à 0 pour les autres attributs.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0">
+    <comment ref="AA5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0">
+    <comment ref="AB5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="271">
   <si>
     <t>en_US</t>
   </si>
@@ -285,9 +259,6 @@
     <t>unique</t>
   </si>
   <si>
-    <t>searchable</t>
-  </si>
-  <si>
     <t>localizable</t>
   </si>
   <si>
@@ -325,9 +296,6 @@
   </si>
   <si>
     <t>negative_allowed</t>
-  </si>
-  <si>
-    <t>date_type</t>
   </si>
   <si>
     <t>date_min</t>
@@ -957,9 +925,6 @@
     <t>Unique*</t>
   </si>
   <si>
-    <t>Utilisé pour la recherche*</t>
-  </si>
-  <si>
     <t>Traduisible*</t>
   </si>
   <si>
@@ -991,9 +956,6 @@
   </si>
   <si>
     <t>Nombre max</t>
-  </si>
-  <si>
-    <t>Type de date</t>
   </si>
   <si>
     <t>Date min</t>
@@ -1176,12 +1138,6 @@
   </si>
   <si>
     <t>Valeur par défaut</t>
-  </si>
-  <si>
-    <t>Requis*</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
 </sst>
 </file>
@@ -2042,32 +1998,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2075,7 +2031,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,127 +2039,127 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2226,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,18 +2193,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2273,10 +2229,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,103 +2240,103 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2366,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2421,79 +2377,79 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:1024" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9"/>
       <c r="AMJ1"/>
@@ -2533,704 +2489,704 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3245,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3258,60 +3214,58 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="29.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" customWidth="1"/>
-    <col min="27" max="27" width="26.42578125" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5703125" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="2"/>
-    <col min="51" max="51" width="9.140625" style="3"/>
-    <col min="52" max="53" width="9.140625" style="2"/>
+    <col min="6" max="6" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="16" customWidth="1"/>
+    <col min="11" max="12" width="29.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.5703125" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="2"/>
+    <col min="48" max="48" width="9.140625" style="3"/>
+    <col min="49" max="50" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
       <c r="AX1"/>
-      <c r="AY1"/>
-      <c r="AZ1"/>
-      <c r="BA1"/>
-    </row>
-    <row r="2" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
       <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-    </row>
-    <row r="4" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -3337,108 +3291,96 @@
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-    </row>
-    <row r="5" spans="1:53" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:50" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="Z5" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB5" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD5" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:50" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -3450,97 +3392,88 @@
         <v>10</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="J6" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>273</v>
+      <c r="N6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="C7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -3549,26 +3482,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
       <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
         <v>1</v>
       </c>
-      <c r="M7" s="18">
-        <v>1</v>
-      </c>
-      <c r="N7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="11"/>
       <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -3599,28 +3528,25 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="AZ7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="16">
         <v>2</v>
@@ -3631,57 +3557,48 @@
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
       <c r="I8" s="16">
         <v>0</v>
       </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
       <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="X8" s="31"/>
+      <c r="U8" s="31"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:AD4"/>
+    <mergeCell ref="C4:AA4"/>
   </mergeCells>
-  <dataValidations count="21">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="S7:T1048576">
+  <dataValidations count="20">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="Q7:R1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AB7:AB1048576 AD7:AD1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="Y7:Y1048576 AA7:AA1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
-      <formula1>date_choices</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="P7:P1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="N7:N1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:I1048576 R7:R1048576 U7:V1048576 K7:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576 S7:T1048576 I7:K1048576 F7:G1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3689,31 +3606,31 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP7 AR7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7 AO7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
-      <formula1>$S$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7">
+      <formula1>$Q$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7:AO7 AT7:AV7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7:AL7 AQ7:AS7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3723,10 +3640,10 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>
@@ -3738,10 +3655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3751,55 +3668,53 @@
     <col min="4" max="4" width="23.7109375"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="16"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
-    <col min="8" max="8" width="13" style="16"/>
-    <col min="9" max="9" width="25.85546875" style="16"/>
-    <col min="10" max="10" width="25.140625" style="16"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="16"/>
-    <col min="13" max="13" width="34.5703125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="29.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125"/>
-    <col min="17" max="17" width="19.28515625"/>
-    <col min="18" max="18" width="25.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625"/>
-    <col min="20" max="20" width="16.5703125"/>
-    <col min="21" max="21" width="19"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375"/>
-    <col min="24" max="25" width="13.42578125"/>
-    <col min="26" max="26" width="19.85546875"/>
-    <col min="27" max="27" width="20.42578125" customWidth="1"/>
-    <col min="28" max="28" width="26.42578125" customWidth="1"/>
-    <col min="29" max="29" width="21"/>
-    <col min="30" max="30" width="22"/>
-    <col min="31" max="31" width="34.5703125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="16"/>
-    <col min="33" max="41" width="13.42578125"/>
-    <col min="42" max="42" width="16.85546875"/>
-    <col min="43" max="43" width="19.140625"/>
-    <col min="44" max="44" width="16.28515625"/>
-    <col min="45" max="47" width="13.42578125"/>
-    <col min="48" max="48" width="19.140625"/>
-    <col min="49" max="51" width="18.140625"/>
-    <col min="52" max="52" width="0" style="2" hidden="1"/>
-    <col min="53" max="53" width="0" style="3" hidden="1"/>
-    <col min="54" max="54" width="0" style="2" hidden="1"/>
-    <col min="55" max="55" width="17.140625" style="2"/>
-    <col min="56" max="1026" width="17.140625"/>
+    <col min="7" max="7" width="13" style="16"/>
+    <col min="8" max="8" width="25.140625" style="16"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="16"/>
+    <col min="11" max="11" width="34.5703125" style="16" customWidth="1"/>
+    <col min="12" max="13" width="29.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125"/>
+    <col min="15" max="15" width="19.28515625"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625"/>
+    <col min="18" max="18" width="16.5703125"/>
+    <col min="19" max="19" width="19"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375"/>
+    <col min="22" max="22" width="13.42578125"/>
+    <col min="23" max="23" width="19.85546875"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" customWidth="1"/>
+    <col min="26" max="26" width="21"/>
+    <col min="27" max="27" width="22"/>
+    <col min="28" max="28" width="34.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="16"/>
+    <col min="30" max="38" width="13.42578125"/>
+    <col min="39" max="39" width="16.85546875"/>
+    <col min="40" max="40" width="19.140625"/>
+    <col min="41" max="41" width="16.28515625"/>
+    <col min="42" max="44" width="13.42578125"/>
+    <col min="45" max="45" width="19.140625"/>
+    <col min="46" max="48" width="18.140625"/>
+    <col min="49" max="49" width="0" style="2" hidden="1"/>
+    <col min="50" max="50" width="0" style="3" hidden="1"/>
+    <col min="51" max="51" width="0" style="2" hidden="1"/>
+    <col min="52" max="52" width="17.140625" style="2"/>
+    <col min="53" max="1023" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>207</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
       <c r="AZ1"/>
-      <c r="BA1"/>
-      <c r="BB1"/>
-      <c r="BC1"/>
-    </row>
-    <row r="2" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3812,19 +3727,19 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
       <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-    </row>
-    <row r="4" spans="1:55" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -3850,112 +3765,100 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="V5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="V5" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AA5" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB5" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD5" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE5" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AC5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3963,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>8</v>
@@ -3975,102 +3878,93 @@
         <v>10</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="I6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="K6" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="L6" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>273</v>
+      <c r="O6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+    </row>
+    <row r="7" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF6" s="20"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-    </row>
-    <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="11"/>
       <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -4082,12 +3976,12 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
+      <c r="AC7" s="18">
+        <v>1</v>
+      </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="18">
-        <v>1</v>
-      </c>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
@@ -4104,59 +3998,56 @@
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB7" s="2">
+      <c r="AW7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="AF8" s="16">
+      <c r="AC8" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:AE4"/>
+    <mergeCell ref="D4:AB4"/>
   </mergeCells>
-  <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP7:AQ7 AV7:AX7">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AN7 AS7:AU7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
-      <formula1>$T$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7">
+      <formula1>$R$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR7 AT7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7 AQ7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4164,46 +4055,43 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:J1048576 S7:S1048576 B7:B1048576 V7:W1048576 L7:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q1048576 B7:B1048576 T7:U1048576 J7:L1048576 G7:H1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="Q7:Q1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O7:O1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
-      <formula1>date_choices</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="AC7:AC1048576 AE7:AE1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="Z7:Z1048576 AB7:AB1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF7:AF1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AC7:AC1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="T7:U1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7:AD1048576"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576"/>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E7:E1048576">
       <formula1>attribute_groups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>
@@ -4231,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4240,13 +4128,13 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,18 +4145,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4298,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4308,30 +4196,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4258,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4379,19 +4267,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -4399,16 +4287,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4422,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>2</v>
@@ -4462,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4471,13 +4359,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -4485,10 +4373,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4496,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4531,16 +4419,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
@@ -4548,12 +4436,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4561,7 +4449,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4597,7 +4485,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
@@ -4605,10 +4493,10 @@
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4616,39 +4504,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AW$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$AY$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AU$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$6:$AW$9</definedName>
     <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
     <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
     <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0">
+    <comment ref="X5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0">
+    <comment ref="Y5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
     <author>SMILE</author>
   </authors>
   <commentList>
-    <comment ref="AC4" authorId="0">
+    <comment ref="AA4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0">
+    <comment ref="Y5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0">
+    <comment ref="Z5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,29 +159,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SMILE</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chaque attribut doit avoir une seule option par défaut</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SMILE</author>
@@ -221,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="266">
   <si>
     <t>en_US</t>
   </si>
@@ -268,9 +245,6 @@
     <t>scopable</t>
   </si>
   <si>
-    <t>useable_as_grid_column</t>
-  </si>
-  <si>
     <t>useable_as_grid_filter</t>
   </si>
   <si>
@@ -283,9 +257,6 @@
     <t>validation_regexp</t>
   </si>
   <si>
-    <t>wisiwig_enabled</t>
-  </si>
-  <si>
     <t>number_min</t>
   </si>
   <si>
@@ -344,9 +315,6 @@
   </si>
   <si>
     <t>attribute</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>Area</t>
@@ -934,9 +902,6 @@
     <t>Scopable*</t>
   </si>
   <si>
-    <t>Utilisable  comme colonne de grille*</t>
-  </si>
-  <si>
     <t>Utilisable comme filtre de grille*</t>
   </si>
   <si>
@@ -992,9 +957,6 @@
   </si>
   <si>
     <t>Code de l'option</t>
-  </si>
-  <si>
-    <t>Par défaut</t>
   </si>
   <si>
     <t>Propriétés du canal</t>
@@ -1131,13 +1093,13 @@
     </r>
   </si>
   <si>
-    <t>²</t>
-  </si>
-  <si>
-    <t>default_value</t>
-  </si>
-  <si>
-    <t>Valeur par défaut</t>
+    <t>available_locales</t>
+  </si>
+  <si>
+    <t>wysiwyg_enabled</t>
+  </si>
+  <si>
+    <t>wysywig_enabled</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1397,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1478,7 +1440,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1987,9 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1998,32 +1958,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +1991,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,127 +1999,127 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2182,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
         <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,18 +2153,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2229,10 +2189,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2240,103 +2200,103 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2366,10 +2326,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2377,79 +2337,79 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:1024" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9"/>
       <c r="AMJ1"/>
@@ -2489,704 +2449,704 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3201,11 +3161,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3218,54 +3176,53 @@
     <col min="7" max="7" width="12" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="16" customWidth="1"/>
-    <col min="11" max="12" width="29.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="23.140625" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="34.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="2"/>
-    <col min="48" max="48" width="9.140625" style="3"/>
-    <col min="49" max="50" width="9.140625" style="2"/>
+    <col min="10" max="10" width="29.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.5703125" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="2"/>
+    <col min="46" max="46" width="9.140625" style="3"/>
+    <col min="47" max="48" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
       <c r="AU1"/>
       <c r="AV1"/>
-      <c r="AW1"/>
-      <c r="AX1"/>
-    </row>
-    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-    </row>
-    <row r="4" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:48" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -3289,98 +3246,90 @@
       <c r="W4" s="32"/>
       <c r="X4" s="32"/>
       <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-    </row>
-    <row r="5" spans="1:50" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:48" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="E5" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="U5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="X5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="W5" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z5" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:48" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -3398,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>14</v>
@@ -3406,17 +3355,17 @@
       <c r="J6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>269</v>
+      <c r="L6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>19</v>
@@ -3451,29 +3400,23 @@
       <c r="Y6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="AS6"/>
+      <c r="AT6"/>
       <c r="AU6"/>
       <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -3491,11 +3434,9 @@
       <c r="J7" s="18">
         <v>1</v>
       </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18"/>
+      <c r="K7" s="11"/>
       <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3526,27 +3467,19 @@
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="AW7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="16">
         <v>2</v>
@@ -3563,42 +3496,34 @@
       <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="U8" s="31"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="16" t="s">
-        <v>268</v>
-      </c>
+      <c r="S8" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C4:Y4"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="Q7:R1048576">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="O7:P1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="Y7:Y1048576 AA7:AA1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="W7:W1048576 Y7:Y1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="N7:N1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L7:L1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576 S7:T1048576 I7:K1048576 F7:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576 Q7:R1048576 F7:G1048576 I7:J1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3606,31 +3531,31 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7 AO7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7 AM7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7">
-      <formula1>$Q$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
+      <formula1>$O$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7:AL7 AQ7:AS7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7:AJ7 AO7:AQ7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3640,10 +3565,10 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>
@@ -3655,11 +3580,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3672,49 +3595,48 @@
     <col min="8" max="8" width="25.140625" style="16"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="16"/>
-    <col min="11" max="11" width="34.5703125" style="16" customWidth="1"/>
-    <col min="12" max="13" width="29.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125"/>
-    <col min="15" max="15" width="19.28515625"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625"/>
-    <col min="18" max="18" width="16.5703125"/>
-    <col min="19" max="19" width="19"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375"/>
-    <col min="22" max="22" width="13.42578125"/>
-    <col min="23" max="23" width="19.85546875"/>
-    <col min="24" max="24" width="20.42578125" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1"/>
-    <col min="26" max="26" width="21"/>
-    <col min="27" max="27" width="22"/>
-    <col min="28" max="28" width="34.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="16"/>
-    <col min="30" max="38" width="13.42578125"/>
-    <col min="39" max="39" width="16.85546875"/>
-    <col min="40" max="40" width="19.140625"/>
-    <col min="41" max="41" width="16.28515625"/>
-    <col min="42" max="44" width="13.42578125"/>
-    <col min="45" max="45" width="19.140625"/>
-    <col min="46" max="48" width="18.140625"/>
+    <col min="11" max="11" width="29.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125"/>
+    <col min="13" max="13" width="19.28515625"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625"/>
+    <col min="16" max="16" width="16.5703125"/>
+    <col min="17" max="17" width="19"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375"/>
+    <col min="20" max="20" width="13.42578125"/>
+    <col min="21" max="21" width="19.85546875"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="23" max="23" width="26.42578125" customWidth="1"/>
+    <col min="24" max="24" width="21"/>
+    <col min="25" max="25" width="22"/>
+    <col min="26" max="26" width="34.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="16"/>
+    <col min="28" max="36" width="13.42578125"/>
+    <col min="37" max="37" width="16.85546875"/>
+    <col min="38" max="38" width="19.140625"/>
+    <col min="39" max="39" width="16.28515625"/>
+    <col min="40" max="42" width="13.42578125"/>
+    <col min="43" max="43" width="19.140625"/>
+    <col min="44" max="46" width="18.140625"/>
+    <col min="47" max="47" width="0" style="2" hidden="1"/>
+    <col min="48" max="48" width="0" style="3" hidden="1"/>
     <col min="49" max="49" width="0" style="2" hidden="1"/>
-    <col min="50" max="50" width="0" style="3" hidden="1"/>
-    <col min="51" max="51" width="0" style="2" hidden="1"/>
-    <col min="52" max="52" width="17.140625" style="2"/>
-    <col min="53" max="1023" width="17.140625"/>
+    <col min="50" max="50" width="17.140625" style="2"/>
+    <col min="51" max="1021" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AU1"/>
+      <c r="AV1"/>
       <c r="AW1"/>
       <c r="AX1"/>
-      <c r="AY1"/>
-      <c r="AZ1"/>
-    </row>
-    <row r="2" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3727,19 +3649,19 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="AU2"/>
+      <c r="AV2"/>
       <c r="AW2"/>
       <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-    </row>
-    <row r="4" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -3763,102 +3685,94 @@
       <c r="X4" s="32"/>
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="F5" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="N5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="R5" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="T5" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="V5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="X5" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z5" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB5" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AA5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3866,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>8</v>
@@ -3884,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>14</v>
@@ -3892,17 +3806,17 @@
       <c r="K6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>269</v>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -3937,21 +3851,15 @@
       <c r="Z6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
       <c r="AW6"/>
       <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-    </row>
-    <row r="7" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3960,9 +3868,9 @@
       <c r="I7" s="11"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="11"/>
       <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3974,11 +3882,11 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="18">
+        <v>1</v>
+      </c>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="18">
-        <v>1</v>
-      </c>
+      <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
@@ -3996,58 +3904,56 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY7" s="2">
+      <c r="AU7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="AC8" s="16">
+      <c r="AA8" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="D4:Z4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AN7 AS7:AU7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7:AL7 AQ7:AS7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
       <formula1>validation_type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7">
-      <formula1>$R$7</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7">
+      <formula1>$P$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7">
       <formula1>datetype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO7 AQ7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7 AO7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4055,43 +3961,43 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q1048576 B7:B1048576 T7:U1048576 J7:L1048576 G7:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:O1048576 B7:B1048576 R7:S1048576 G7:H1048576 J7:K1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="O7:O1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M7:M1048576">
       <formula1>validation_choices</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="Z7:Z1048576 AB7:AB1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="X7:X1048576 Z7:Z1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AC7:AC1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA7:AA1048576">
       <formula1>boolean_choices</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="R7:S1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="P7:Q1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y1048576"/>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
       <formula1>attribute_types</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E7:E1048576">
       <formula1>attribute_groups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V1048576">
       <formula1>metric_types</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1048576">
       <formula1>metric_units</formula1>
     </dataValidation>
   </dataValidations>
@@ -4105,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4119,7 +4025,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4128,13 +4034,13 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4145,18 +4051,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4169,72 +4075,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="12"/>
     <col min="2" max="2" width="19.7109375"/>
-    <col min="3" max="3" width="17.140625" style="11"/>
-    <col min="4" max="1025" width="17.140625"/>
+    <col min="3" max="1024" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>206</v>
+      <c r="C3" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
-      <formula1>boolean_choices</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4258,7 +4150,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4267,19 +4159,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -4287,16 +4179,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4310,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>2</v>
@@ -4338,7 +4230,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4350,7 +4242,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4359,13 +4251,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -4373,10 +4265,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4384,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4300,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4419,16 +4311,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
@@ -4436,12 +4328,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4449,7 +4341,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4473,9 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4485,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
@@ -4493,10 +4383,10 @@
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4504,39 +4394,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="265">
   <si>
     <t>en_US</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>global</t>
-  </si>
-  <si>
-    <t>1 - tous</t>
   </si>
   <si>
     <t>name</t>
@@ -1958,32 +1955,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +1988,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,127 +1996,127 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2142,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,18 +2150,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2189,10 +2186,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2200,103 +2197,103 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2323,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,79 +2334,79 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:1024" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9"/>
       <c r="AMJ1"/>
@@ -2449,704 +2446,704 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3195,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3222,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -3249,79 +3246,79 @@
     </row>
     <row r="5" spans="1:48" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y5" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
@@ -3329,7 +3326,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -3347,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>14</v>
@@ -3365,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>19</v>
@@ -3413,7 +3410,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>32</v>
@@ -3470,13 +3467,13 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>32</v>
@@ -3502,7 +3499,7 @@
   <mergeCells count="1">
     <mergeCell ref="C4:Y4"/>
   </mergeCells>
-  <dataValidations count="20">
+  <dataValidations count="14">
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="O7:P1048576">
       <formula1>0</formula1>
@@ -3531,32 +3528,8 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7 AM7">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7">
-      <formula1>datetype</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
       <formula1>$O$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7">
-      <formula1>validation_type</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7:AJ7 AO7:AQ7">
-      <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D1048576">
@@ -3619,9 +3592,9 @@
     <col min="40" max="42" width="13.42578125"/>
     <col min="43" max="43" width="19.140625"/>
     <col min="44" max="46" width="18.140625"/>
-    <col min="47" max="47" width="0" style="2" hidden="1"/>
-    <col min="48" max="48" width="0" style="3" hidden="1"/>
-    <col min="49" max="49" width="0" style="2" hidden="1"/>
+    <col min="47" max="47" width="9.140625" style="2"/>
+    <col min="48" max="48" width="9.140625" style="3"/>
+    <col min="49" max="49" width="9.140625" style="2"/>
     <col min="50" max="50" width="17.140625" style="2"/>
     <col min="51" max="1021" width="17.140625"/>
   </cols>
@@ -3629,7 +3602,7 @@
     <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU1"/>
       <c r="AV1"/>
@@ -3661,7 +3634,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -3686,87 +3659,87 @@
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
       <c r="AA4" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>202</v>
-      </c>
       <c r="D5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="T5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z5" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z5" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>2</v>
@@ -3780,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>8</v>
@@ -3798,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>14</v>
@@ -3816,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -3904,16 +3877,10 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3928,33 +3895,9 @@
   <mergeCells count="1">
     <mergeCell ref="D4:Z4"/>
   </mergeCells>
-  <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK7:AL7 AQ7:AS7">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI7">
-      <formula1>validation_type</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="15">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7">
       <formula1>$P$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD7">
-      <formula1>datetype</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7 AO7">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="F7">
@@ -4025,7 +3968,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4034,13 +3977,13 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4051,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4062,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4034,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4100,24 +4043,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4159,19 +4102,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -4179,16 +4122,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>2</v>
@@ -4242,7 +4185,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="13" t="s">
@@ -4251,13 +4194,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -4265,10 +4208,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4276,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4311,16 +4254,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
@@ -4328,12 +4271,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4341,7 +4284,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4375,7 +4318,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>5</v>
@@ -4383,10 +4326,10 @@
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4394,39 +4337,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="267">
   <si>
     <t>en_US</t>
   </si>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <t>wysywig_enabled</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Autres</t>
   </si>
 </sst>
 </file>
@@ -3952,7 +3958,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -4006,6 +4012,17 @@
       </c>
       <c r="C4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="496" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="270">
   <si>
     <t>en_US</t>
   </si>
@@ -1103,6 +1103,15 @@
   </si>
   <si>
     <t>Autres</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Resistance</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2314,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2413,6 +2424,30 @@
       </c>
       <c r="B11" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Resources/fixtures/minimal_FR/init.xlsx
+++ b/Resources/fixtures/minimal_FR/init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="226" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4005" tabRatio="510" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="274">
   <si>
     <t>en_US</t>
   </si>
@@ -1138,6 +1138,15 @@
   </si>
   <si>
     <t>Valeur par défaut</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Resistance</t>
   </si>
 </sst>
 </file>
@@ -2351,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2450,6 +2459,30 @@
       </c>
       <c r="B11" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -4473,7 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
